--- a/TestAllocate.xlsx
+++ b/TestAllocate.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\all_programming\R_files\Financial\Allocate_df\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A966EFD-E5F1-430D-A2A1-780EF0A80C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4F490D-3742-461A-AF53-038370CD7A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="6630" yWindow="750" windowWidth="15645" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestAllocate" sheetId="1" r:id="rId1"/>
+    <sheet name="Values" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -58,7 +72,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,9 +553,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,20 +932,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -956,1161 +978,1161 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>44988</v>
+        <v>73</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44895</v>
       </c>
       <c r="C2">
-        <v>618.08000000000004</v>
+        <v>1827.03</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>618.08000000000004</v>
+        <v>207175.24</v>
       </c>
       <c r="G2">
-        <v>45079</v>
+        <v>44953</v>
       </c>
       <c r="H2">
-        <v>453.98</v>
+        <v>1378.03</v>
       </c>
       <c r="I2">
-        <v>36850</v>
-      </c>
-      <c r="J2">
-        <v>206557.16</v>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>44988</v>
+        <v>72</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44880</v>
       </c>
       <c r="C3">
-        <v>2422.31</v>
+        <v>4068.9</v>
       </c>
       <c r="D3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="F3">
-        <v>3040.39</v>
+        <v>205348.21</v>
       </c>
       <c r="G3">
-        <v>45079</v>
+        <v>44953</v>
       </c>
       <c r="H3">
-        <v>1815.93</v>
+        <v>2756.06</v>
       </c>
       <c r="I3">
-        <v>36450</v>
+        <v>250</v>
       </c>
       <c r="J3">
-        <v>204134.85</v>
+        <v>1827.03</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>44988</v>
+        <v>71</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44819</v>
       </c>
       <c r="C4">
-        <v>2298.31</v>
+        <v>503.42</v>
       </c>
       <c r="D4">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="F4">
-        <v>5338.7</v>
+        <v>201279.31</v>
       </c>
       <c r="G4">
-        <v>45079</v>
+        <v>44953</v>
       </c>
       <c r="H4">
-        <v>1815.93</v>
+        <v>275.61</v>
       </c>
       <c r="I4">
-        <v>36050</v>
+        <v>750</v>
       </c>
       <c r="J4">
-        <v>201836.54</v>
+        <v>5895.93</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>44988</v>
+        <v>70</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44819</v>
       </c>
       <c r="C5">
-        <v>605.16999999999996</v>
+        <v>1989.98</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F5">
-        <v>5943.87</v>
+        <v>200775.89</v>
       </c>
       <c r="G5">
-        <v>45079</v>
+        <v>44953</v>
       </c>
       <c r="H5">
-        <v>453.98</v>
+        <v>1102.42</v>
       </c>
       <c r="I5">
-        <v>35950</v>
+        <v>800</v>
       </c>
       <c r="J5">
-        <v>201231.37</v>
+        <v>6399.35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>45043</v>
+        <v>69</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44895</v>
       </c>
       <c r="C6">
-        <v>544.5</v>
+        <v>499.59</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6">
-        <v>1100</v>
+        <v>2700</v>
       </c>
       <c r="F6">
-        <v>6488.37</v>
+        <v>198785.91</v>
       </c>
       <c r="G6">
-        <v>45079</v>
+        <v>44960</v>
       </c>
       <c r="H6">
-        <v>453.98</v>
+        <v>585.47</v>
       </c>
       <c r="I6">
-        <v>35850</v>
+        <v>1000</v>
       </c>
       <c r="J6">
-        <v>200686.87</v>
+        <v>8389.33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>44988</v>
+        <v>68</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44895</v>
       </c>
       <c r="C7">
-        <v>562.53</v>
+        <v>652.91999999999996</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="F7">
-        <v>7050.9</v>
+        <v>198286.32</v>
       </c>
       <c r="G7">
-        <v>45076</v>
+        <v>44960</v>
       </c>
       <c r="H7">
-        <v>458.26</v>
+        <v>625.47</v>
       </c>
       <c r="I7">
-        <v>35750</v>
+        <v>1100</v>
       </c>
       <c r="J7">
-        <v>200124.34</v>
+        <v>8888.92</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>44988</v>
+        <v>67</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44895</v>
       </c>
       <c r="C8">
-        <v>575.44000000000005</v>
+        <v>742.1</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="F8">
-        <v>7626.34</v>
+        <v>197633.4</v>
       </c>
       <c r="G8">
-        <v>45076</v>
+        <v>44960</v>
       </c>
       <c r="H8">
-        <v>458.26</v>
+        <v>667.98</v>
       </c>
       <c r="I8">
-        <v>35650</v>
+        <v>1200</v>
       </c>
       <c r="J8">
-        <v>199548.9</v>
+        <v>9541.84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>44988</v>
+        <v>66</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44895</v>
       </c>
       <c r="C9">
-        <v>2251.7600000000002</v>
+        <v>365.4</v>
       </c>
       <c r="D9">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="F9">
-        <v>9878.1</v>
+        <v>196891.3</v>
       </c>
       <c r="G9">
-        <v>45076</v>
+        <v>44960</v>
       </c>
       <c r="H9">
-        <v>1833.05</v>
+        <v>333.99</v>
       </c>
       <c r="I9">
-        <v>35250</v>
+        <v>1300</v>
       </c>
       <c r="J9">
-        <v>197297.14</v>
+        <v>10283.94</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>44988</v>
+        <v>65</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44895</v>
       </c>
       <c r="C10">
-        <v>2127.75</v>
+        <v>1113.1500000000001</v>
       </c>
       <c r="D10">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="E10">
-        <v>2100</v>
+        <v>2350</v>
       </c>
       <c r="F10">
-        <v>12005.85</v>
+        <v>196525.9</v>
       </c>
       <c r="G10">
-        <v>45076</v>
+        <v>44960</v>
       </c>
       <c r="H10">
-        <v>1833.04</v>
+        <v>938.2</v>
       </c>
       <c r="I10">
-        <v>34850</v>
+        <v>1350</v>
       </c>
       <c r="J10">
-        <v>195169.39</v>
+        <v>10649.34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>44988</v>
+        <v>64</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44895</v>
       </c>
       <c r="C11">
-        <v>846.81</v>
+        <v>640.57000000000005</v>
       </c>
       <c r="D11">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>4200</v>
+        <v>2200</v>
       </c>
       <c r="F11">
-        <v>12852.66</v>
+        <v>195412.75</v>
       </c>
       <c r="G11">
-        <v>45036</v>
+        <v>44960</v>
       </c>
       <c r="H11">
-        <v>941.41</v>
+        <v>618.98</v>
       </c>
       <c r="I11">
-        <v>34660</v>
+        <v>1500</v>
       </c>
       <c r="J11">
-        <v>194322.58</v>
+        <v>11762.49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>44988</v>
+        <v>63</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44895</v>
       </c>
       <c r="C12">
-        <v>4951.6899999999996</v>
+        <v>320.81</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>3100</v>
+        <v>2100</v>
       </c>
       <c r="F12">
-        <v>17804.349999999999</v>
+        <v>194772.18</v>
       </c>
       <c r="G12">
-        <v>45036</v>
+        <v>44960</v>
       </c>
       <c r="H12">
-        <v>4914.8100000000004</v>
+        <v>309.49</v>
       </c>
       <c r="I12">
-        <v>33660</v>
+        <v>1600</v>
       </c>
       <c r="J12">
-        <v>189370.89</v>
+        <v>12403.06</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>44988</v>
+        <v>62</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44895</v>
       </c>
       <c r="C13">
-        <v>3610.07</v>
+        <v>551.39</v>
       </c>
       <c r="D13">
-        <v>810</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>3910</v>
+        <v>2050</v>
       </c>
       <c r="F13">
-        <v>21414.42</v>
+        <v>194451.37</v>
       </c>
       <c r="G13">
-        <v>45036</v>
+        <v>44960</v>
       </c>
       <c r="H13">
-        <v>4005.29</v>
+        <v>618.98</v>
       </c>
       <c r="I13">
-        <v>32850</v>
+        <v>1650</v>
       </c>
       <c r="J13">
-        <v>185760.82</v>
+        <v>12723.87</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>44988</v>
+        <v>61</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44880</v>
       </c>
       <c r="C14">
-        <v>4739.7</v>
+        <v>3171.79</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E14">
-        <v>5200</v>
+        <v>1950</v>
       </c>
       <c r="F14">
-        <v>26154.12</v>
+        <v>193899.98</v>
       </c>
       <c r="G14">
-        <v>45036</v>
+        <v>44960</v>
       </c>
       <c r="H14">
-        <v>4989.21</v>
+        <v>3094.9</v>
       </c>
       <c r="I14">
-        <v>31850</v>
+        <v>1750</v>
       </c>
       <c r="J14">
-        <v>181021.12</v>
+        <v>13275.26</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>44988</v>
+        <v>60</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44880</v>
       </c>
       <c r="C15">
-        <v>4722.29</v>
+        <v>3679.44</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E15">
-        <v>6200</v>
+        <v>1450</v>
       </c>
       <c r="F15">
-        <v>30876.41</v>
+        <v>190728.19</v>
       </c>
       <c r="G15">
-        <v>45036</v>
+        <v>44960</v>
       </c>
       <c r="H15">
-        <v>4989.22</v>
+        <v>3127.35</v>
       </c>
       <c r="I15">
-        <v>30850</v>
+        <v>2250</v>
       </c>
       <c r="J15">
-        <v>176298.83</v>
+        <v>16447.05</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>44988</v>
+        <v>59</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44880</v>
       </c>
       <c r="C16">
-        <v>2649.3</v>
+        <v>4125.34</v>
       </c>
       <c r="D16">
         <v>500</v>
       </c>
       <c r="E16">
-        <v>8100</v>
+        <v>950</v>
       </c>
       <c r="F16">
-        <v>33525.71</v>
+        <v>187048.75</v>
       </c>
       <c r="G16">
-        <v>45036</v>
+        <v>44960</v>
       </c>
       <c r="H16">
-        <v>2494.61</v>
+        <v>3339.9</v>
       </c>
       <c r="I16">
-        <v>30350</v>
+        <v>2750</v>
       </c>
       <c r="J16">
-        <v>173649.53</v>
+        <v>20126.490000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>44988</v>
+        <v>58</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44819</v>
       </c>
       <c r="C17">
-        <v>844.45</v>
+        <v>464.47</v>
       </c>
       <c r="D17">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>6390</v>
+        <v>450</v>
       </c>
       <c r="F17">
-        <v>34370.160000000003</v>
+        <v>182923.41</v>
       </c>
       <c r="G17">
-        <v>45036</v>
+        <v>44960</v>
       </c>
       <c r="H17">
-        <v>944.26</v>
+        <v>312.74</v>
       </c>
       <c r="I17">
-        <v>30160</v>
+        <v>3250</v>
       </c>
       <c r="J17">
-        <v>172805.08</v>
+        <v>24251.83</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>44988</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44819</v>
       </c>
       <c r="C18">
-        <v>3600.03</v>
+        <v>509.06</v>
       </c>
       <c r="D18">
-        <v>810</v>
+        <v>50</v>
       </c>
       <c r="E18">
-        <v>7200</v>
+        <v>400</v>
       </c>
       <c r="F18">
-        <v>37970.19</v>
+        <v>182458.94</v>
       </c>
       <c r="G18">
-        <v>45036</v>
+        <v>44960</v>
       </c>
       <c r="H18">
-        <v>4013.4</v>
+        <v>333.99</v>
       </c>
       <c r="I18">
-        <v>29350</v>
+        <v>3300</v>
       </c>
       <c r="J18">
-        <v>169205.05</v>
+        <v>24716.3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>44988</v>
+        <v>56</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44819</v>
       </c>
       <c r="C19">
-        <v>516.95000000000005</v>
+        <v>917.1</v>
       </c>
       <c r="D19">
         <v>100</v>
       </c>
       <c r="E19">
-        <v>4010</v>
+        <v>350</v>
       </c>
       <c r="F19">
-        <v>38487.14</v>
+        <v>181949.88</v>
       </c>
       <c r="G19">
-        <v>45036</v>
+        <v>44960</v>
       </c>
       <c r="H19">
-        <v>498.92</v>
+        <v>668.47</v>
       </c>
       <c r="I19">
-        <v>29250</v>
+        <v>3350</v>
       </c>
       <c r="J19">
-        <v>168688.1</v>
+        <v>25225.360000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>44988</v>
+        <v>55</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44819</v>
       </c>
       <c r="C20">
-        <v>2069.44</v>
+        <v>725.9</v>
       </c>
       <c r="D20">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>7600</v>
+        <v>1050</v>
       </c>
       <c r="F20">
-        <v>40556.58</v>
+        <v>181032.78</v>
       </c>
       <c r="G20">
-        <v>45036</v>
+        <v>44960</v>
       </c>
       <c r="H20">
-        <v>1995.68</v>
+        <v>618.98</v>
       </c>
       <c r="I20">
-        <v>28850</v>
+        <v>3450</v>
       </c>
       <c r="J20">
-        <v>166618.66</v>
+        <v>26142.46</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>44988</v>
+        <v>54</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44819</v>
       </c>
       <c r="C21">
-        <v>4939.3</v>
+        <v>772.57</v>
       </c>
       <c r="D21">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>9100</v>
+        <v>950</v>
       </c>
       <c r="F21">
-        <v>45495.88</v>
+        <v>180306.88</v>
       </c>
       <c r="G21">
-        <v>45022</v>
+        <v>44960</v>
       </c>
       <c r="H21">
-        <v>4914.82</v>
+        <v>625.47</v>
       </c>
       <c r="I21">
-        <v>27850</v>
+        <v>3550</v>
       </c>
       <c r="J21">
-        <v>161679.35999999999</v>
+        <v>26868.36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>44988</v>
+        <v>53</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44819</v>
       </c>
       <c r="C22">
-        <v>3396.7</v>
+        <v>917.1</v>
       </c>
       <c r="D22">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E22">
-        <v>9600</v>
+        <v>850</v>
       </c>
       <c r="F22">
-        <v>48892.58</v>
+        <v>179534.31</v>
       </c>
       <c r="G22">
-        <v>44993</v>
+        <v>44960</v>
       </c>
       <c r="H22">
-        <v>2859.9</v>
+        <v>625.47</v>
       </c>
       <c r="I22">
-        <v>27350</v>
+        <v>3650</v>
       </c>
       <c r="J22">
-        <v>158282.66</v>
+        <v>27640.93</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>44988</v>
+        <v>52</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44819</v>
       </c>
       <c r="C23">
-        <v>19767.3</v>
+        <v>2012.56</v>
       </c>
       <c r="D23">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="E23">
-        <v>15100</v>
+        <v>650</v>
       </c>
       <c r="F23">
-        <v>68659.88</v>
+        <v>178617.21</v>
       </c>
       <c r="G23">
-        <v>44993</v>
+        <v>44960</v>
       </c>
       <c r="H23">
-        <v>17834.41</v>
+        <v>1335.96</v>
       </c>
       <c r="I23">
-        <v>24350</v>
+        <v>3750</v>
       </c>
       <c r="J23">
-        <v>138515.35999999999</v>
+        <v>28558.03</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>44988</v>
+        <v>51</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44819</v>
       </c>
       <c r="C24">
-        <v>2717.36</v>
+        <v>815.57</v>
       </c>
       <c r="D24">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>8000</v>
+        <v>750</v>
       </c>
       <c r="F24">
-        <v>71377.240000000005</v>
+        <v>176604.65</v>
       </c>
       <c r="G24">
-        <v>44993</v>
+        <v>44960</v>
       </c>
       <c r="H24">
-        <v>2337.92</v>
+        <v>618.98</v>
       </c>
       <c r="I24">
-        <v>23950</v>
+        <v>3950</v>
       </c>
       <c r="J24">
-        <v>135798</v>
+        <v>30570.59</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>44988</v>
+        <v>50</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44819</v>
       </c>
       <c r="C25">
-        <v>678.93</v>
+        <v>413.7</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>10100</v>
+        <v>450</v>
       </c>
       <c r="F25">
-        <v>72056.17</v>
+        <v>175789.08</v>
       </c>
       <c r="G25">
-        <v>44993</v>
+        <v>44960</v>
       </c>
       <c r="H25">
-        <v>584.48</v>
+        <v>309.49</v>
       </c>
       <c r="I25">
-        <v>23850</v>
+        <v>4050</v>
       </c>
       <c r="J25">
-        <v>135119.07</v>
+        <v>31386.16</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>44988</v>
+        <v>49</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44895</v>
       </c>
       <c r="C26">
-        <v>12374.2</v>
+        <v>264.8</v>
       </c>
       <c r="D26">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>10000</v>
+        <v>2650</v>
       </c>
       <c r="F26">
-        <v>84430.37</v>
+        <v>175375.38</v>
       </c>
       <c r="G26">
-        <v>44993</v>
+        <v>44978</v>
       </c>
       <c r="H26">
-        <v>11509.61</v>
+        <v>330.74</v>
       </c>
       <c r="I26">
-        <v>21850</v>
+        <v>4100</v>
       </c>
       <c r="J26">
-        <v>122744.87</v>
+        <v>31799.86</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>44988</v>
+        <v>48</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44967</v>
       </c>
       <c r="C27">
-        <v>6485</v>
+        <v>4507.75</v>
       </c>
       <c r="D27">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="E27">
-        <v>18100</v>
+        <v>4500</v>
       </c>
       <c r="F27">
-        <v>90915.37</v>
+        <v>175110.58</v>
       </c>
       <c r="G27">
-        <v>44988</v>
+        <v>44978</v>
       </c>
       <c r="H27">
-        <v>6551.1</v>
+        <v>5561.98</v>
       </c>
       <c r="I27">
-        <v>20850</v>
+        <v>4150</v>
       </c>
       <c r="J27">
-        <v>116259.87</v>
+        <v>32064.66</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>44988</v>
+        <v>47</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44953</v>
       </c>
       <c r="C28">
-        <v>13178.2</v>
+        <v>4453.49</v>
       </c>
       <c r="D28">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="E28">
-        <v>11600</v>
+        <v>31650</v>
       </c>
       <c r="F28">
-        <v>104093.57</v>
+        <v>170602.83</v>
       </c>
       <c r="G28">
-        <v>44988</v>
+        <v>44978</v>
       </c>
       <c r="H28">
-        <v>13102.2</v>
+        <v>4976.5</v>
       </c>
       <c r="I28">
-        <v>18850</v>
+        <v>5100</v>
       </c>
       <c r="J28">
-        <v>103081.67</v>
+        <v>36572.410000000003</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>44972</v>
+        <v>46</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44895</v>
       </c>
       <c r="C29">
-        <v>8843.18</v>
+        <v>273.29000000000002</v>
       </c>
       <c r="D29">
-        <v>1850</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>21800</v>
+        <v>3550</v>
       </c>
       <c r="F29">
-        <v>112936.75</v>
+        <v>166149.34</v>
       </c>
       <c r="G29">
-        <v>44984</v>
+        <v>44978</v>
       </c>
       <c r="H29">
-        <v>14031.86</v>
+        <v>292.74</v>
       </c>
       <c r="I29">
-        <v>17000</v>
+        <v>5950</v>
       </c>
       <c r="J29">
-        <v>94238.49</v>
+        <v>41025.9</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>44970</v>
+        <v>45</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44895</v>
       </c>
       <c r="C30">
-        <v>7077.45</v>
+        <v>320.29000000000002</v>
       </c>
       <c r="D30">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>11600</v>
+        <v>3500</v>
       </c>
       <c r="F30">
-        <v>120014.2</v>
+        <v>165876.04999999999</v>
       </c>
       <c r="G30">
-        <v>44984</v>
+        <v>44978</v>
       </c>
       <c r="H30">
-        <v>10110.89</v>
+        <v>292.74</v>
       </c>
       <c r="I30">
-        <v>15500</v>
+        <v>6000</v>
       </c>
       <c r="J30">
-        <v>87161.04</v>
+        <v>41299.19</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>44972</v>
+        <v>44</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44967</v>
       </c>
       <c r="C31">
-        <v>4780.1000000000004</v>
+        <v>1195</v>
       </c>
       <c r="D31">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E31">
-        <v>22800</v>
+        <v>4750</v>
       </c>
       <c r="F31">
-        <v>124794.3</v>
+        <v>165555.76</v>
       </c>
       <c r="G31">
-        <v>44984</v>
+        <v>44978</v>
       </c>
       <c r="H31">
-        <v>7815.78</v>
+        <v>1463.68</v>
       </c>
       <c r="I31">
-        <v>14500</v>
+        <v>6050</v>
       </c>
       <c r="J31">
-        <v>82380.94</v>
+        <v>41619.480000000003</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>44970</v>
+        <v>43</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44880</v>
       </c>
       <c r="C32">
-        <v>1415.01</v>
+        <v>2466.89</v>
       </c>
       <c r="D32">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E32">
-        <v>19900</v>
+        <v>3450</v>
       </c>
       <c r="F32">
-        <v>126209.31</v>
+        <v>164360.76</v>
       </c>
       <c r="G32">
-        <v>44984</v>
+        <v>44978</v>
       </c>
       <c r="H32">
-        <v>2022.18</v>
+        <v>2927.36</v>
       </c>
       <c r="I32">
-        <v>14200</v>
+        <v>6300</v>
       </c>
       <c r="J32">
-        <v>80965.929999999993</v>
+        <v>42814.48</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>44970</v>
+        <v>42</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44819</v>
       </c>
       <c r="C33">
-        <v>236.48</v>
+        <v>674.59</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E33">
-        <v>19950</v>
+        <v>2900</v>
       </c>
       <c r="F33">
-        <v>126445.79</v>
+        <v>161893.87</v>
       </c>
       <c r="G33">
-        <v>44984</v>
+        <v>44978</v>
       </c>
       <c r="H33">
-        <v>337.03</v>
+        <v>585.47</v>
       </c>
       <c r="I33">
-        <v>14150</v>
+        <v>6800</v>
       </c>
       <c r="J33">
-        <v>80729.45</v>
+        <v>45281.37</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>44972</v>
+        <v>41</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44819</v>
       </c>
       <c r="C34">
-        <v>5497.12</v>
+        <v>630.86</v>
       </c>
       <c r="D34">
-        <v>1150</v>
+        <v>100</v>
       </c>
       <c r="E34">
-        <v>23950</v>
+        <v>2800</v>
       </c>
       <c r="F34">
-        <v>131942.91</v>
+        <v>161219.28</v>
       </c>
       <c r="G34">
-        <v>44984</v>
+        <v>44978</v>
       </c>
       <c r="H34">
-        <v>7751.69</v>
+        <v>585.47</v>
       </c>
       <c r="I34">
-        <v>13000</v>
+        <v>6900</v>
       </c>
       <c r="J34">
-        <v>75232.33</v>
+        <v>45955.96</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>44970</v>
+        <v>40</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44819</v>
       </c>
       <c r="C35">
-        <v>13952.32</v>
+        <v>343.21</v>
       </c>
       <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
         <v>2950</v>
       </c>
-      <c r="E35">
-        <v>27900</v>
-      </c>
       <c r="F35">
-        <v>145895.23000000001</v>
+        <v>160588.42000000001</v>
       </c>
       <c r="G35">
-        <v>44979</v>
+        <v>44978</v>
       </c>
       <c r="H35">
-        <v>19513.37</v>
+        <v>292.74</v>
       </c>
       <c r="I35">
-        <v>10050</v>
+        <v>7000</v>
       </c>
       <c r="J35">
-        <v>61280.01</v>
+        <v>46586.82</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>44819</v>
+        <v>39</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44970</v>
       </c>
       <c r="C36">
-        <v>519.89</v>
+        <v>9420</v>
       </c>
       <c r="D36">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="E36">
-        <v>24050</v>
+        <v>5550</v>
       </c>
       <c r="F36">
-        <v>146415.12</v>
+        <v>160245.21</v>
       </c>
       <c r="G36">
         <v>44979</v>
       </c>
       <c r="H36">
-        <v>661.47</v>
+        <v>13229.41</v>
       </c>
       <c r="I36">
-        <v>9950</v>
+        <v>7050</v>
       </c>
       <c r="J36">
-        <v>60760.12</v>
+        <v>46930.03</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>44819</v>
+        <v>38</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44967</v>
       </c>
       <c r="C37">
-        <v>563.62</v>
+        <v>3558.75</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="E37">
-        <v>24150</v>
+        <v>24950</v>
       </c>
       <c r="F37">
-        <v>146978.74</v>
+        <v>150825.21</v>
       </c>
       <c r="G37">
         <v>44979</v>
       </c>
       <c r="H37">
-        <v>661.47</v>
+        <v>4961.0200000000004</v>
       </c>
       <c r="I37">
-        <v>9850</v>
+        <v>9050</v>
       </c>
       <c r="J37">
-        <v>60196.5</v>
+        <v>56350.03</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>44819</v>
       </c>
       <c r="C38">
@@ -2140,9 +2162,2399 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44819</v>
+      </c>
+      <c r="C39">
+        <v>563.62</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>24150</v>
+      </c>
+      <c r="F39">
+        <v>146978.74</v>
+      </c>
+      <c r="G39">
+        <v>44979</v>
+      </c>
+      <c r="H39">
+        <v>661.47</v>
+      </c>
+      <c r="I39">
+        <v>9850</v>
+      </c>
+      <c r="J39">
+        <v>60196.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44819</v>
+      </c>
+      <c r="C40">
+        <v>519.89</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>24050</v>
+      </c>
+      <c r="F40">
+        <v>146415.12</v>
+      </c>
+      <c r="G40">
+        <v>44979</v>
+      </c>
+      <c r="H40">
+        <v>661.47</v>
+      </c>
+      <c r="I40">
+        <v>9950</v>
+      </c>
+      <c r="J40">
+        <v>60760.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C41">
+        <v>13952.32</v>
+      </c>
+      <c r="D41">
+        <v>2950</v>
+      </c>
+      <c r="E41">
+        <v>27900</v>
+      </c>
+      <c r="F41">
+        <v>145895.23000000001</v>
+      </c>
+      <c r="G41">
+        <v>44979</v>
+      </c>
+      <c r="H41">
+        <v>19513.37</v>
+      </c>
+      <c r="I41">
+        <v>10050</v>
+      </c>
+      <c r="J41">
+        <v>61280.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44972</v>
+      </c>
+      <c r="C42">
+        <v>5497.12</v>
+      </c>
+      <c r="D42">
+        <v>1150</v>
+      </c>
+      <c r="E42">
+        <v>23950</v>
+      </c>
+      <c r="F42">
+        <v>131942.91</v>
+      </c>
+      <c r="G42">
+        <v>44984</v>
+      </c>
+      <c r="H42">
+        <v>7751.69</v>
+      </c>
+      <c r="I42">
+        <v>13000</v>
+      </c>
+      <c r="J42">
+        <v>75232.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C43">
+        <v>236.48</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>19950</v>
+      </c>
+      <c r="F43">
+        <v>126445.79</v>
+      </c>
+      <c r="G43">
+        <v>44984</v>
+      </c>
+      <c r="H43">
+        <v>337.03</v>
+      </c>
+      <c r="I43">
+        <v>14150</v>
+      </c>
+      <c r="J43">
+        <v>80729.45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C44">
+        <v>1415.01</v>
+      </c>
+      <c r="D44">
+        <v>300</v>
+      </c>
+      <c r="E44">
+        <v>19900</v>
+      </c>
+      <c r="F44">
+        <v>126209.31</v>
+      </c>
+      <c r="G44">
+        <v>44984</v>
+      </c>
+      <c r="H44">
+        <v>2022.18</v>
+      </c>
+      <c r="I44">
+        <v>14200</v>
+      </c>
+      <c r="J44">
+        <v>80965.929999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>30</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44972</v>
+      </c>
+      <c r="C45">
+        <v>4780.1000000000004</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
+      </c>
+      <c r="E45">
+        <v>22800</v>
+      </c>
+      <c r="F45">
+        <v>124794.3</v>
+      </c>
+      <c r="G45">
+        <v>44984</v>
+      </c>
+      <c r="H45">
+        <v>7815.78</v>
+      </c>
+      <c r="I45">
+        <v>14500</v>
+      </c>
+      <c r="J45">
+        <v>82380.94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>29</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44970</v>
+      </c>
+      <c r="C46">
+        <v>7077.45</v>
+      </c>
+      <c r="D46">
+        <v>1500</v>
+      </c>
+      <c r="E46">
+        <v>11600</v>
+      </c>
+      <c r="F46">
+        <v>120014.2</v>
+      </c>
+      <c r="G46">
+        <v>44984</v>
+      </c>
+      <c r="H46">
+        <v>10110.89</v>
+      </c>
+      <c r="I46">
+        <v>15500</v>
+      </c>
+      <c r="J46">
+        <v>87161.04</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44972</v>
+      </c>
+      <c r="C47">
+        <v>8843.18</v>
+      </c>
+      <c r="D47">
+        <v>1850</v>
+      </c>
+      <c r="E47">
+        <v>21800</v>
+      </c>
+      <c r="F47">
+        <v>112936.75</v>
+      </c>
+      <c r="G47">
+        <v>44984</v>
+      </c>
+      <c r="H47">
+        <v>14031.86</v>
+      </c>
+      <c r="I47">
+        <v>17000</v>
+      </c>
+      <c r="J47">
+        <v>94238.49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>27</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C48">
+        <v>13178.2</v>
+      </c>
+      <c r="D48">
+        <v>2000</v>
+      </c>
+      <c r="E48">
+        <v>11600</v>
+      </c>
+      <c r="F48">
+        <v>104093.57</v>
+      </c>
+      <c r="G48">
+        <v>44988</v>
+      </c>
+      <c r="H48">
+        <v>13102.2</v>
+      </c>
+      <c r="I48">
+        <v>18850</v>
+      </c>
+      <c r="J48">
+        <v>103081.67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>26</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C49">
+        <v>6485</v>
+      </c>
+      <c r="D49">
+        <v>1000</v>
+      </c>
+      <c r="E49">
+        <v>18100</v>
+      </c>
+      <c r="F49">
+        <v>90915.37</v>
+      </c>
+      <c r="G49">
+        <v>44988</v>
+      </c>
+      <c r="H49">
+        <v>6551.1</v>
+      </c>
+      <c r="I49">
+        <v>20850</v>
+      </c>
+      <c r="J49">
+        <v>116259.87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C50">
+        <v>12374.2</v>
+      </c>
+      <c r="D50">
+        <v>2000</v>
+      </c>
+      <c r="E50">
+        <v>10000</v>
+      </c>
+      <c r="F50">
+        <v>84430.37</v>
+      </c>
+      <c r="G50">
+        <v>44993</v>
+      </c>
+      <c r="H50">
+        <v>11509.61</v>
+      </c>
+      <c r="I50">
+        <v>21850</v>
+      </c>
+      <c r="J50">
+        <v>122744.87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>24</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C51">
+        <v>678.93</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>10100</v>
+      </c>
+      <c r="F51">
+        <v>72056.17</v>
+      </c>
+      <c r="G51">
+        <v>44993</v>
+      </c>
+      <c r="H51">
+        <v>584.48</v>
+      </c>
+      <c r="I51">
+        <v>23850</v>
+      </c>
+      <c r="J51">
+        <v>135119.07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C52">
+        <v>2717.36</v>
+      </c>
+      <c r="D52">
+        <v>400</v>
+      </c>
+      <c r="E52">
+        <v>8000</v>
+      </c>
+      <c r="F52">
+        <v>71377.240000000005</v>
+      </c>
+      <c r="G52">
+        <v>44993</v>
+      </c>
+      <c r="H52">
+        <v>2337.92</v>
+      </c>
+      <c r="I52">
+        <v>23950</v>
+      </c>
+      <c r="J52">
+        <v>135798</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>22</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C53">
+        <v>19767.3</v>
+      </c>
+      <c r="D53">
+        <v>3000</v>
+      </c>
+      <c r="E53">
+        <v>15100</v>
+      </c>
+      <c r="F53">
+        <v>68659.88</v>
+      </c>
+      <c r="G53">
+        <v>44993</v>
+      </c>
+      <c r="H53">
+        <v>17834.41</v>
+      </c>
+      <c r="I53">
+        <v>24350</v>
+      </c>
+      <c r="J53">
+        <v>138515.35999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>21</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C54">
+        <v>3396.7</v>
+      </c>
+      <c r="D54">
+        <v>500</v>
+      </c>
+      <c r="E54">
+        <v>9600</v>
+      </c>
+      <c r="F54">
+        <v>48892.58</v>
+      </c>
+      <c r="G54">
+        <v>44993</v>
+      </c>
+      <c r="H54">
+        <v>2859.9</v>
+      </c>
+      <c r="I54">
+        <v>27350</v>
+      </c>
+      <c r="J54">
+        <v>158282.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>20</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C55">
+        <v>4939.3</v>
+      </c>
+      <c r="D55">
+        <v>1000</v>
+      </c>
+      <c r="E55">
+        <v>9100</v>
+      </c>
+      <c r="F55">
+        <v>45495.88</v>
+      </c>
+      <c r="G55">
+        <v>45022</v>
+      </c>
+      <c r="H55">
+        <v>4914.82</v>
+      </c>
+      <c r="I55">
+        <v>27850</v>
+      </c>
+      <c r="J55">
+        <v>161679.35999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C56">
+        <v>2069.44</v>
+      </c>
+      <c r="D56">
+        <v>400</v>
+      </c>
+      <c r="E56">
+        <v>7600</v>
+      </c>
+      <c r="F56">
+        <v>40556.58</v>
+      </c>
+      <c r="G56">
+        <v>45036</v>
+      </c>
+      <c r="H56">
+        <v>1995.68</v>
+      </c>
+      <c r="I56">
+        <v>28850</v>
+      </c>
+      <c r="J56">
+        <v>166618.66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>18</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C57">
+        <v>516.95000000000005</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>4010</v>
+      </c>
+      <c r="F57">
+        <v>38487.14</v>
+      </c>
+      <c r="G57">
+        <v>45036</v>
+      </c>
+      <c r="H57">
+        <v>498.92</v>
+      </c>
+      <c r="I57">
+        <v>29250</v>
+      </c>
+      <c r="J57">
+        <v>168688.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C58">
+        <v>3600.03</v>
+      </c>
+      <c r="D58">
+        <v>810</v>
+      </c>
+      <c r="E58">
+        <v>7200</v>
+      </c>
+      <c r="F58">
+        <v>37970.19</v>
+      </c>
+      <c r="G58">
+        <v>45036</v>
+      </c>
+      <c r="H58">
+        <v>4013.4</v>
+      </c>
+      <c r="I58">
+        <v>29350</v>
+      </c>
+      <c r="J58">
+        <v>169205.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C59">
+        <v>844.45</v>
+      </c>
+      <c r="D59">
+        <v>190</v>
+      </c>
+      <c r="E59">
+        <v>6390</v>
+      </c>
+      <c r="F59">
+        <v>34370.160000000003</v>
+      </c>
+      <c r="G59">
+        <v>45036</v>
+      </c>
+      <c r="H59">
+        <v>944.26</v>
+      </c>
+      <c r="I59">
+        <v>30160</v>
+      </c>
+      <c r="J59">
+        <v>172805.08</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C60">
+        <v>2649.3</v>
+      </c>
+      <c r="D60">
+        <v>500</v>
+      </c>
+      <c r="E60">
+        <v>8100</v>
+      </c>
+      <c r="F60">
+        <v>33525.71</v>
+      </c>
+      <c r="G60">
+        <v>45036</v>
+      </c>
+      <c r="H60">
+        <v>2494.61</v>
+      </c>
+      <c r="I60">
+        <v>30350</v>
+      </c>
+      <c r="J60">
+        <v>173649.53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C61">
+        <v>4722.29</v>
+      </c>
+      <c r="D61">
+        <v>1000</v>
+      </c>
+      <c r="E61">
+        <v>6200</v>
+      </c>
+      <c r="F61">
+        <v>30876.41</v>
+      </c>
+      <c r="G61">
+        <v>45036</v>
+      </c>
+      <c r="H61">
+        <v>4989.22</v>
+      </c>
+      <c r="I61">
+        <v>30850</v>
+      </c>
+      <c r="J61">
+        <v>176298.83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C62">
+        <v>4739.7</v>
+      </c>
+      <c r="D62">
+        <v>1000</v>
+      </c>
+      <c r="E62">
+        <v>5200</v>
+      </c>
+      <c r="F62">
+        <v>26154.12</v>
+      </c>
+      <c r="G62">
+        <v>45036</v>
+      </c>
+      <c r="H62">
+        <v>4989.21</v>
+      </c>
+      <c r="I62">
+        <v>31850</v>
+      </c>
+      <c r="J62">
+        <v>181021.12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C63">
+        <v>3610.07</v>
+      </c>
+      <c r="D63">
+        <v>810</v>
+      </c>
+      <c r="E63">
+        <v>3910</v>
+      </c>
+      <c r="F63">
+        <v>21414.42</v>
+      </c>
+      <c r="G63">
+        <v>45036</v>
+      </c>
+      <c r="H63">
+        <v>4005.29</v>
+      </c>
+      <c r="I63">
+        <v>32850</v>
+      </c>
+      <c r="J63">
+        <v>185760.82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C64">
+        <v>4951.6899999999996</v>
+      </c>
+      <c r="D64">
+        <v>1000</v>
+      </c>
+      <c r="E64">
+        <v>3100</v>
+      </c>
+      <c r="F64">
+        <v>17804.349999999999</v>
+      </c>
+      <c r="G64">
+        <v>45036</v>
+      </c>
+      <c r="H64">
+        <v>4914.8100000000004</v>
+      </c>
+      <c r="I64">
+        <v>33660</v>
+      </c>
+      <c r="J64">
+        <v>189370.89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C65">
+        <v>846.81</v>
+      </c>
+      <c r="D65">
+        <v>190</v>
+      </c>
+      <c r="E65">
+        <v>4200</v>
+      </c>
+      <c r="F65">
+        <v>12852.66</v>
+      </c>
+      <c r="G65">
+        <v>45036</v>
+      </c>
+      <c r="H65">
+        <v>941.41</v>
+      </c>
+      <c r="I65">
+        <v>34660</v>
+      </c>
+      <c r="J65">
+        <v>194322.58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C66">
+        <v>2127.75</v>
+      </c>
+      <c r="D66">
+        <v>400</v>
+      </c>
+      <c r="E66">
+        <v>2100</v>
+      </c>
+      <c r="F66">
+        <v>12005.85</v>
+      </c>
+      <c r="G66">
+        <v>45076</v>
+      </c>
+      <c r="H66">
+        <v>1833.04</v>
+      </c>
+      <c r="I66">
+        <v>34850</v>
+      </c>
+      <c r="J66">
+        <v>195169.39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C67">
+        <v>2251.7600000000002</v>
+      </c>
+      <c r="D67">
+        <v>400</v>
+      </c>
+      <c r="E67">
+        <v>1700</v>
+      </c>
+      <c r="F67">
+        <v>9878.1</v>
+      </c>
+      <c r="G67">
+        <v>45076</v>
+      </c>
+      <c r="H67">
+        <v>1833.05</v>
+      </c>
+      <c r="I67">
+        <v>35250</v>
+      </c>
+      <c r="J67">
+        <v>197297.14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C68">
+        <v>575.44000000000005</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <v>1300</v>
+      </c>
+      <c r="F68">
+        <v>7626.34</v>
+      </c>
+      <c r="G68">
+        <v>45076</v>
+      </c>
+      <c r="H68">
+        <v>458.26</v>
+      </c>
+      <c r="I68">
+        <v>35650</v>
+      </c>
+      <c r="J68">
+        <v>199548.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C69">
+        <v>562.53</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <v>1200</v>
+      </c>
+      <c r="F69">
+        <v>7050.9</v>
+      </c>
+      <c r="G69">
+        <v>45076</v>
+      </c>
+      <c r="H69">
+        <v>458.26</v>
+      </c>
+      <c r="I69">
+        <v>35750</v>
+      </c>
+      <c r="J69">
+        <v>200124.34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45043</v>
+      </c>
+      <c r="C70">
+        <v>544.5</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="E70">
+        <v>1100</v>
+      </c>
+      <c r="F70">
+        <v>6488.37</v>
+      </c>
+      <c r="G70">
+        <v>45079</v>
+      </c>
+      <c r="H70">
+        <v>453.98</v>
+      </c>
+      <c r="I70">
+        <v>35850</v>
+      </c>
+      <c r="J70">
+        <v>200686.87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C71">
+        <v>605.16999999999996</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="E71">
+        <v>1000</v>
+      </c>
+      <c r="F71">
+        <v>5943.87</v>
+      </c>
+      <c r="G71">
+        <v>45079</v>
+      </c>
+      <c r="H71">
+        <v>453.98</v>
+      </c>
+      <c r="I71">
+        <v>35950</v>
+      </c>
+      <c r="J71">
+        <v>201231.37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C72">
+        <v>2298.31</v>
+      </c>
+      <c r="D72">
+        <v>400</v>
+      </c>
+      <c r="E72">
+        <v>900</v>
+      </c>
+      <c r="F72">
+        <v>5338.7</v>
+      </c>
+      <c r="G72">
+        <v>45079</v>
+      </c>
+      <c r="H72">
+        <v>1815.93</v>
+      </c>
+      <c r="I72">
+        <v>36050</v>
+      </c>
+      <c r="J72">
+        <v>201836.54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C73">
+        <v>2422.31</v>
+      </c>
+      <c r="D73">
+        <v>400</v>
+      </c>
+      <c r="E73">
+        <v>500</v>
+      </c>
+      <c r="F73">
+        <v>3040.39</v>
+      </c>
+      <c r="G73">
+        <v>45079</v>
+      </c>
+      <c r="H73">
+        <v>1815.93</v>
+      </c>
+      <c r="I73">
+        <v>36450</v>
+      </c>
+      <c r="J73">
+        <v>204134.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44988</v>
+      </c>
+      <c r="C74">
+        <v>618.08000000000004</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="F74">
+        <v>618.08000000000004</v>
+      </c>
+      <c r="G74">
+        <v>45079</v>
+      </c>
+      <c r="H74">
+        <v>453.98</v>
+      </c>
+      <c r="I74">
+        <v>36850</v>
+      </c>
+      <c r="J74">
+        <v>206557.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J88">
+    <sortCondition descending="1" ref="A2:A88"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F99D742-6EAC-4DC5-A864-19390A4DC19C}">
+  <dimension ref="A1:J76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45043</v>
+      </c>
+      <c r="C2">
+        <v>544.5</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>544.5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45079</v>
+      </c>
+      <c r="H2">
+        <v>453.98</v>
+      </c>
+      <c r="I2">
+        <v>36950</v>
+      </c>
+      <c r="J2">
+        <v>207175.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C3">
+        <v>605.16999999999996</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>1149.67</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45079</v>
+      </c>
+      <c r="H3">
+        <v>453.98</v>
+      </c>
+      <c r="I3">
+        <v>36850</v>
+      </c>
+      <c r="J3">
+        <v>206630.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C4">
+        <v>2298.31</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+      <c r="E4">
+        <v>600</v>
+      </c>
+      <c r="F4">
+        <v>3447.98</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45079</v>
+      </c>
+      <c r="H4">
+        <v>1815.93</v>
+      </c>
+      <c r="I4">
+        <v>36750</v>
+      </c>
+      <c r="J4">
+        <v>206025.56999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>70</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C5">
+        <v>2422.31</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>5870.29</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45079</v>
+      </c>
+      <c r="H5">
+        <v>1815.93</v>
+      </c>
+      <c r="I5">
+        <v>36350</v>
+      </c>
+      <c r="J5">
+        <v>203727.25999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C6">
+        <v>618.08000000000004</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>1100</v>
+      </c>
+      <c r="F6">
+        <v>6488.37</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45079</v>
+      </c>
+      <c r="H6">
+        <v>453.98</v>
+      </c>
+      <c r="I6">
+        <v>35950</v>
+      </c>
+      <c r="J6">
+        <v>201304.94999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C7">
+        <v>2127.75</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>1500</v>
+      </c>
+      <c r="F7">
+        <v>8616.119999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45076</v>
+      </c>
+      <c r="H7">
+        <v>1833.04</v>
+      </c>
+      <c r="I7">
+        <v>35850</v>
+      </c>
+      <c r="J7">
+        <v>200686.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C8">
+        <v>2251.7600000000002</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8">
+        <v>1900</v>
+      </c>
+      <c r="F8">
+        <v>10867.88</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45076</v>
+      </c>
+      <c r="H8">
+        <v>1833.05</v>
+      </c>
+      <c r="I8">
+        <v>35450</v>
+      </c>
+      <c r="J8">
+        <v>198559.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C9">
+        <v>575.44000000000005</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>11443.32</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45076</v>
+      </c>
+      <c r="H9">
+        <v>458.26</v>
+      </c>
+      <c r="I9">
+        <v>35050</v>
+      </c>
+      <c r="J9">
+        <v>196307.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>65</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C10">
+        <v>562.53</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>2100</v>
+      </c>
+      <c r="F10">
+        <v>12005.85</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45076</v>
+      </c>
+      <c r="H10">
+        <v>458.26</v>
+      </c>
+      <c r="I10">
+        <v>34950</v>
+      </c>
+      <c r="J10">
+        <v>195731.91999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>64</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C11">
+        <v>2069.44</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11">
+        <v>2500</v>
+      </c>
+      <c r="F11">
+        <v>14075.29</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45036</v>
+      </c>
+      <c r="H11">
+        <v>1995.68</v>
+      </c>
+      <c r="I11">
+        <v>34850</v>
+      </c>
+      <c r="J11">
+        <v>195169.38999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C12">
+        <v>516.95000000000005</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>2600</v>
+      </c>
+      <c r="F12">
+        <v>14592.240000000002</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45036</v>
+      </c>
+      <c r="H12">
+        <v>498.92</v>
+      </c>
+      <c r="I12">
+        <v>34450</v>
+      </c>
+      <c r="J12">
+        <v>193099.94999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>62</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C13">
+        <v>3600.03</v>
+      </c>
+      <c r="D13">
+        <v>810</v>
+      </c>
+      <c r="E13">
+        <v>3410</v>
+      </c>
+      <c r="F13">
+        <v>18192.27</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45036</v>
+      </c>
+      <c r="H13">
+        <v>4013.4</v>
+      </c>
+      <c r="I13">
+        <v>34350</v>
+      </c>
+      <c r="J13">
+        <v>192582.99999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C14">
+        <v>844.45</v>
+      </c>
+      <c r="D14">
+        <v>190</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14">
+        <v>19036.72</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45036</v>
+      </c>
+      <c r="H14">
+        <v>944.26</v>
+      </c>
+      <c r="I14">
+        <v>33540</v>
+      </c>
+      <c r="J14">
+        <v>188982.96999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C15">
+        <v>2649.3</v>
+      </c>
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <v>4100</v>
+      </c>
+      <c r="F15">
+        <v>21686.02</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45036</v>
+      </c>
+      <c r="H15">
+        <v>2494.61</v>
+      </c>
+      <c r="I15">
+        <v>33350</v>
+      </c>
+      <c r="J15">
+        <v>188138.51999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C16">
+        <v>4722.29</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>5100</v>
+      </c>
+      <c r="F16">
+        <v>26408.31</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45036</v>
+      </c>
+      <c r="H16">
+        <v>4989.22</v>
+      </c>
+      <c r="I16">
+        <v>32850</v>
+      </c>
+      <c r="J16">
+        <v>185489.21999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C17">
+        <v>4739.7</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>6100</v>
+      </c>
+      <c r="F17">
+        <v>31148.010000000002</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45036</v>
+      </c>
+      <c r="H17">
+        <v>4989.21</v>
+      </c>
+      <c r="I17">
+        <v>31850</v>
+      </c>
+      <c r="J17">
+        <v>180766.92999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>57</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C18">
+        <v>3610.07</v>
+      </c>
+      <c r="D18">
+        <v>810</v>
+      </c>
+      <c r="E18">
+        <v>6910</v>
+      </c>
+      <c r="F18">
+        <v>34758.080000000002</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45036</v>
+      </c>
+      <c r="H18">
+        <v>4005.29</v>
+      </c>
+      <c r="I18">
+        <v>30850</v>
+      </c>
+      <c r="J18">
+        <v>176027.22999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C19">
+        <v>4951.6899999999996</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>7910</v>
+      </c>
+      <c r="F19">
+        <v>39709.770000000004</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45036</v>
+      </c>
+      <c r="H19">
+        <v>4914.8100000000004</v>
+      </c>
+      <c r="I19">
+        <v>30040</v>
+      </c>
+      <c r="J19">
+        <v>172417.15999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C20">
+        <v>846.81</v>
+      </c>
+      <c r="D20">
+        <v>190</v>
+      </c>
+      <c r="E20">
+        <v>8100</v>
+      </c>
+      <c r="F20">
+        <v>40556.58</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45036</v>
+      </c>
+      <c r="H20">
+        <v>941.41</v>
+      </c>
+      <c r="I20">
+        <v>29040</v>
+      </c>
+      <c r="J20">
+        <v>167465.46999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C21">
+        <v>4939.3</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>9100</v>
+      </c>
+      <c r="F21">
+        <v>45495.880000000005</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45022</v>
+      </c>
+      <c r="H21">
+        <v>4914.82</v>
+      </c>
+      <c r="I21">
+        <v>28850</v>
+      </c>
+      <c r="J21">
+        <v>166618.65999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C22">
+        <v>12374.2</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>11100</v>
+      </c>
+      <c r="F22">
+        <v>57870.080000000002</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44993</v>
+      </c>
+      <c r="H22">
+        <v>11509.61</v>
+      </c>
+      <c r="I22">
+        <v>27850</v>
+      </c>
+      <c r="J22">
+        <v>161679.35999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C23">
+        <v>678.93</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>11200</v>
+      </c>
+      <c r="F23">
+        <v>58549.01</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44993</v>
+      </c>
+      <c r="H23">
+        <v>584.48</v>
+      </c>
+      <c r="I23">
+        <v>25850</v>
+      </c>
+      <c r="J23">
+        <v>149305.15999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C24">
+        <v>2717.36</v>
+      </c>
+      <c r="D24">
+        <v>400</v>
+      </c>
+      <c r="E24">
+        <v>11600</v>
+      </c>
+      <c r="F24">
+        <v>61266.37</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44993</v>
+      </c>
+      <c r="H24">
+        <v>2337.92</v>
+      </c>
+      <c r="I24">
+        <v>25750</v>
+      </c>
+      <c r="J24">
+        <v>148626.22999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C25">
+        <v>19767.3</v>
+      </c>
+      <c r="D25">
+        <v>3000</v>
+      </c>
+      <c r="E25">
+        <v>14600</v>
+      </c>
+      <c r="F25">
+        <v>81033.67</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44993</v>
+      </c>
+      <c r="H25">
+        <v>17834.41</v>
+      </c>
+      <c r="I25">
+        <v>25350</v>
+      </c>
+      <c r="J25">
+        <v>145908.86999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C26">
+        <v>3396.7</v>
+      </c>
+      <c r="D26">
+        <v>500</v>
+      </c>
+      <c r="E26">
+        <v>15100</v>
+      </c>
+      <c r="F26">
+        <v>84430.37</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44993</v>
+      </c>
+      <c r="H26">
+        <v>2859.9</v>
+      </c>
+      <c r="I26">
+        <v>22350</v>
+      </c>
+      <c r="J26">
+        <v>126141.56999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>48</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C27">
+        <v>13178.2</v>
+      </c>
+      <c r="D27">
+        <v>2000</v>
+      </c>
+      <c r="E27">
+        <v>17100</v>
+      </c>
+      <c r="F27">
+        <v>97608.569999999992</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44988</v>
+      </c>
+      <c r="H27">
+        <v>13102.2</v>
+      </c>
+      <c r="I27">
+        <v>21850</v>
+      </c>
+      <c r="J27">
+        <v>122744.86999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C28">
+        <v>6485</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
+        <v>18100</v>
+      </c>
+      <c r="F28">
+        <v>104093.56999999999</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44988</v>
+      </c>
+      <c r="H28">
+        <v>6551.1</v>
+      </c>
+      <c r="I28">
+        <v>19850</v>
+      </c>
+      <c r="J28">
+        <v>109566.66999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>46</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44972</v>
+      </c>
+      <c r="C29">
+        <v>5497.12</v>
+      </c>
+      <c r="D29">
+        <v>1150</v>
+      </c>
+      <c r="E29">
+        <v>19250</v>
+      </c>
+      <c r="F29">
+        <v>5497.12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H29">
+        <v>7751.69</v>
+      </c>
+      <c r="I29">
+        <v>18850</v>
+      </c>
+      <c r="J29">
+        <v>103081.66999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44972</v>
+      </c>
+      <c r="C30">
+        <v>4780.1000000000004</v>
+      </c>
+      <c r="D30">
+        <v>1000</v>
+      </c>
+      <c r="E30">
+        <v>20250</v>
+      </c>
+      <c r="F30">
+        <v>10277.220000000001</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H30">
+        <v>7815.78</v>
+      </c>
+      <c r="I30">
+        <v>17700</v>
+      </c>
+      <c r="J30">
+        <v>97584.549999999988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>44</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44972</v>
+      </c>
+      <c r="C31">
+        <v>8843.18</v>
+      </c>
+      <c r="D31">
+        <v>1850</v>
+      </c>
+      <c r="E31">
+        <v>22100</v>
+      </c>
+      <c r="F31">
+        <v>19120.400000000001</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H31">
+        <v>14031.86</v>
+      </c>
+      <c r="I31">
+        <v>16700</v>
+      </c>
+      <c r="J31">
+        <v>92804.449999999983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>43</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44970</v>
+      </c>
+      <c r="C32">
+        <v>9420</v>
+      </c>
+      <c r="D32">
+        <v>2000</v>
+      </c>
+      <c r="E32">
+        <v>24100</v>
+      </c>
+      <c r="F32">
+        <v>28540.400000000001</v>
+      </c>
+      <c r="G32" s="3">
+        <v>44979</v>
+      </c>
+      <c r="H32">
+        <v>13229.41</v>
+      </c>
+      <c r="I32">
+        <v>14850</v>
+      </c>
+      <c r="J32">
+        <v>83961.26999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44970</v>
+      </c>
+      <c r="C33">
+        <v>13952.32</v>
+      </c>
+      <c r="D33">
+        <v>2950</v>
+      </c>
+      <c r="E33">
+        <v>27050</v>
+      </c>
+      <c r="F33">
+        <v>42492.72</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44979</v>
+      </c>
+      <c r="H33">
+        <v>19513.37</v>
+      </c>
+      <c r="I33">
+        <v>12850</v>
+      </c>
+      <c r="J33">
+        <v>74541.26999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>41</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44970</v>
+      </c>
+      <c r="C34">
+        <v>236.48</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>27100</v>
+      </c>
+      <c r="F34">
+        <v>42729.200000000004</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H34">
+        <v>337.03</v>
+      </c>
+      <c r="I34">
+        <v>9900</v>
+      </c>
+      <c r="J34">
+        <v>60588.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44970</v>
+      </c>
+      <c r="C35">
+        <v>1415.01</v>
+      </c>
+      <c r="D35">
+        <v>300</v>
+      </c>
+      <c r="E35">
+        <v>27400</v>
+      </c>
+      <c r="F35">
+        <v>44144.210000000006</v>
+      </c>
+      <c r="G35" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H35">
+        <v>2022.18</v>
+      </c>
+      <c r="I35">
+        <v>9850</v>
+      </c>
+      <c r="J35">
+        <v>60352.469999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44970</v>
+      </c>
+      <c r="C36">
+        <v>7077.45</v>
+      </c>
+      <c r="D36">
+        <v>1500</v>
+      </c>
+      <c r="E36">
+        <v>28900</v>
+      </c>
+      <c r="F36">
+        <v>51221.66</v>
+      </c>
+      <c r="G36" s="3">
+        <v>44984</v>
+      </c>
+      <c r="H36">
+        <v>10110.89</v>
+      </c>
+      <c r="I36">
+        <v>9550</v>
+      </c>
+      <c r="J36">
+        <v>58937.459999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B37" s="3">
+        <v>44967</v>
+      </c>
+      <c r="C37">
+        <v>4507.75</v>
+      </c>
+      <c r="D37">
+        <v>950</v>
+      </c>
+      <c r="E37">
+        <v>29850</v>
+      </c>
+      <c r="F37">
+        <v>55729.41</v>
+      </c>
+      <c r="G37" s="3">
+        <v>44978</v>
+      </c>
+      <c r="H37">
+        <v>5561.98</v>
+      </c>
+      <c r="I37">
+        <v>8050</v>
+      </c>
+      <c r="J37">
+        <v>51860.009999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44967</v>
+      </c>
+      <c r="C38">
+        <v>1195</v>
+      </c>
+      <c r="D38">
+        <v>250</v>
+      </c>
+      <c r="E38">
+        <v>30100</v>
+      </c>
+      <c r="F38">
+        <v>56924.41</v>
+      </c>
+      <c r="G38" s="3">
+        <v>44978</v>
+      </c>
+      <c r="H38">
+        <v>1463.68</v>
+      </c>
+      <c r="I38">
+        <v>7100</v>
+      </c>
+      <c r="J38">
+        <v>47352.259999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
         <v>44967</v>
       </c>
       <c r="C39">
@@ -2152,1142 +4564,1142 @@
         <v>750</v>
       </c>
       <c r="E39">
-        <v>24950</v>
+        <v>30850</v>
       </c>
       <c r="F39">
-        <v>150825.21</v>
-      </c>
-      <c r="G39">
+        <v>60483.16</v>
+      </c>
+      <c r="G39" s="3">
         <v>44979</v>
       </c>
       <c r="H39">
         <v>4961.0200000000004</v>
       </c>
       <c r="I39">
-        <v>9050</v>
+        <v>6850</v>
       </c>
       <c r="J39">
-        <v>56350.03</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>44970</v>
-      </c>
-      <c r="C40">
-        <v>9420</v>
-      </c>
-      <c r="D40">
-        <v>2000</v>
-      </c>
-      <c r="E40">
-        <v>5550</v>
-      </c>
-      <c r="F40">
-        <v>160245.21</v>
-      </c>
-      <c r="G40">
-        <v>44979</v>
-      </c>
-      <c r="H40">
-        <v>13229.41</v>
-      </c>
-      <c r="I40">
-        <v>7050</v>
-      </c>
-      <c r="J40">
-        <v>46930.03</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>44819</v>
-      </c>
-      <c r="C41">
-        <v>343.21</v>
-      </c>
-      <c r="D41">
-        <v>50</v>
-      </c>
-      <c r="E41">
-        <v>2950</v>
-      </c>
-      <c r="F41">
-        <v>160588.42000000001</v>
-      </c>
-      <c r="G41">
-        <v>44978</v>
-      </c>
-      <c r="H41">
-        <v>292.74</v>
-      </c>
-      <c r="I41">
-        <v>7000</v>
-      </c>
-      <c r="J41">
-        <v>46586.82</v>
+        <v>46157.259999999995</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>44819</v>
+        <v>35</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44953</v>
       </c>
       <c r="C42">
-        <v>630.86</v>
+        <v>4453.49</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>850</v>
       </c>
       <c r="E42">
-        <v>2800</v>
+        <v>31700</v>
       </c>
       <c r="F42">
-        <v>161219.28</v>
-      </c>
-      <c r="G42">
+        <v>4453.49</v>
+      </c>
+      <c r="G42" s="3">
         <v>44978</v>
       </c>
       <c r="H42">
-        <v>585.47</v>
+        <v>4976.5</v>
       </c>
       <c r="I42">
-        <v>6900</v>
+        <v>6100</v>
       </c>
       <c r="J42">
-        <v>45955.96</v>
+        <v>42598.509999999995</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>44819</v>
+        <v>34</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44895</v>
       </c>
       <c r="C43">
-        <v>674.59</v>
+        <v>1827.03</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E43">
-        <v>2900</v>
+        <v>31950</v>
       </c>
       <c r="F43">
-        <v>161893.87</v>
-      </c>
-      <c r="G43">
-        <v>44978</v>
+        <v>6280.5199999999995</v>
+      </c>
+      <c r="G43" s="3">
+        <v>44953</v>
       </c>
       <c r="H43">
-        <v>585.47</v>
+        <v>1378.03</v>
       </c>
       <c r="I43">
-        <v>6800</v>
+        <v>5250</v>
       </c>
       <c r="J43">
-        <v>45281.37</v>
+        <v>38145.019999999997</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>44880</v>
+        <v>33</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44895</v>
       </c>
       <c r="C44">
-        <v>2466.89</v>
+        <v>499.59</v>
       </c>
       <c r="D44">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E44">
-        <v>3450</v>
+        <v>32050</v>
       </c>
       <c r="F44">
-        <v>164360.76</v>
-      </c>
-      <c r="G44">
-        <v>44978</v>
+        <v>6780.11</v>
+      </c>
+      <c r="G44" s="3">
+        <v>44960</v>
       </c>
       <c r="H44">
-        <v>2927.36</v>
+        <v>585.47</v>
       </c>
       <c r="I44">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="J44">
-        <v>42814.48</v>
+        <v>36317.99</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>44967</v>
+        <v>32</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44895</v>
       </c>
       <c r="C45">
-        <v>1195</v>
+        <v>652.91999999999996</v>
       </c>
       <c r="D45">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E45">
-        <v>4750</v>
+        <v>32150</v>
       </c>
       <c r="F45">
-        <v>165555.76</v>
-      </c>
-      <c r="G45">
-        <v>44978</v>
+        <v>7433.03</v>
+      </c>
+      <c r="G45" s="3">
+        <v>44960</v>
       </c>
       <c r="H45">
-        <v>1463.68</v>
+        <v>625.47</v>
       </c>
       <c r="I45">
-        <v>6050</v>
+        <v>4900</v>
       </c>
       <c r="J45">
-        <v>41619.480000000003</v>
+        <v>35818.400000000001</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
+        <v>31</v>
+      </c>
+      <c r="B46" s="3">
         <v>44895</v>
       </c>
       <c r="C46">
-        <v>320.29000000000002</v>
+        <v>742.1</v>
       </c>
       <c r="D46">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E46">
-        <v>3500</v>
+        <v>32250</v>
       </c>
       <c r="F46">
-        <v>165876.04999999999</v>
-      </c>
-      <c r="G46">
-        <v>44978</v>
+        <v>8175.13</v>
+      </c>
+      <c r="G46" s="3">
+        <v>44960</v>
       </c>
       <c r="H46">
-        <v>292.74</v>
+        <v>667.98</v>
       </c>
       <c r="I46">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="J46">
-        <v>41299.19</v>
+        <v>35165.480000000003</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
+        <v>30</v>
+      </c>
+      <c r="B47" s="3">
         <v>44895</v>
       </c>
       <c r="C47">
-        <v>273.29000000000002</v>
+        <v>365.4</v>
       </c>
       <c r="D47">
         <v>50</v>
       </c>
       <c r="E47">
-        <v>3550</v>
+        <v>32300</v>
       </c>
       <c r="F47">
-        <v>166149.34</v>
-      </c>
-      <c r="G47">
-        <v>44978</v>
+        <v>8540.5300000000007</v>
+      </c>
+      <c r="G47" s="3">
+        <v>44960</v>
       </c>
       <c r="H47">
-        <v>292.74</v>
+        <v>333.99</v>
       </c>
       <c r="I47">
-        <v>5950</v>
+        <v>4700</v>
       </c>
       <c r="J47">
-        <v>41025.9</v>
+        <v>34423.380000000005</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>44953</v>
+        <v>29</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44895</v>
       </c>
       <c r="C48">
-        <v>4453.49</v>
+        <v>1113.1500000000001</v>
       </c>
       <c r="D48">
-        <v>850</v>
+        <v>150</v>
       </c>
       <c r="E48">
-        <v>31650</v>
+        <v>32450</v>
       </c>
       <c r="F48">
-        <v>170602.83</v>
-      </c>
-      <c r="G48">
-        <v>44978</v>
+        <v>9653.68</v>
+      </c>
+      <c r="G48" s="3">
+        <v>44960</v>
       </c>
       <c r="H48">
-        <v>4976.5</v>
+        <v>938.2</v>
       </c>
       <c r="I48">
-        <v>5100</v>
+        <v>4650</v>
       </c>
       <c r="J48">
-        <v>36572.410000000003</v>
+        <v>34057.980000000003</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>44967</v>
+        <v>28</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44895</v>
       </c>
       <c r="C49">
-        <v>4507.75</v>
+        <v>640.57000000000005</v>
       </c>
       <c r="D49">
-        <v>950</v>
+        <v>100</v>
       </c>
       <c r="E49">
+        <v>32550</v>
+      </c>
+      <c r="F49">
+        <v>10294.25</v>
+      </c>
+      <c r="G49" s="3">
+        <v>44960</v>
+      </c>
+      <c r="H49">
+        <v>618.98</v>
+      </c>
+      <c r="I49">
         <v>4500</v>
       </c>
-      <c r="F49">
-        <v>175110.58</v>
-      </c>
-      <c r="G49">
-        <v>44978</v>
-      </c>
-      <c r="H49">
-        <v>5561.98</v>
-      </c>
-      <c r="I49">
-        <v>4150</v>
-      </c>
       <c r="J49">
-        <v>32064.66</v>
+        <v>32944.83</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
+        <v>27</v>
+      </c>
+      <c r="B50" s="3">
         <v>44895</v>
       </c>
       <c r="C50">
-        <v>264.8</v>
+        <v>320.81</v>
       </c>
       <c r="D50">
         <v>50</v>
       </c>
       <c r="E50">
-        <v>2650</v>
+        <v>32600</v>
       </c>
       <c r="F50">
-        <v>175375.38</v>
-      </c>
-      <c r="G50">
-        <v>44978</v>
+        <v>10615.06</v>
+      </c>
+      <c r="G50" s="3">
+        <v>44960</v>
       </c>
       <c r="H50">
-        <v>330.74</v>
+        <v>309.49</v>
       </c>
       <c r="I50">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="J50">
-        <v>31799.86</v>
+        <v>32304.26</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>44819</v>
+        <v>26</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44895</v>
       </c>
       <c r="C51">
-        <v>413.7</v>
+        <v>551.39</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E51">
-        <v>450</v>
+        <v>32700</v>
       </c>
       <c r="F51">
-        <v>175789.08</v>
-      </c>
-      <c r="G51">
+        <v>11166.449999999999</v>
+      </c>
+      <c r="G51" s="3">
         <v>44960</v>
       </c>
       <c r="H51">
-        <v>309.49</v>
+        <v>618.98</v>
       </c>
       <c r="I51">
-        <v>4050</v>
+        <v>4350</v>
       </c>
       <c r="J51">
-        <v>31386.16</v>
+        <v>31983.449999999997</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>44819</v>
+        <v>25</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44895</v>
       </c>
       <c r="C52">
-        <v>815.57</v>
+        <v>264.8</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E52">
-        <v>750</v>
+        <v>32750</v>
       </c>
       <c r="F52">
-        <v>176604.65</v>
-      </c>
-      <c r="G52">
-        <v>44960</v>
+        <v>11431.249999999998</v>
+      </c>
+      <c r="G52" s="3">
+        <v>44978</v>
       </c>
       <c r="H52">
-        <v>618.98</v>
+        <v>330.74</v>
       </c>
       <c r="I52">
-        <v>3950</v>
+        <v>4250</v>
       </c>
       <c r="J52">
-        <v>30570.59</v>
+        <v>31432.059999999998</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>44819</v>
+        <v>24</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44895</v>
       </c>
       <c r="C53">
-        <v>2012.56</v>
+        <v>273.29000000000002</v>
       </c>
       <c r="D53">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E53">
-        <v>650</v>
+        <v>32800</v>
       </c>
       <c r="F53">
-        <v>178617.21</v>
-      </c>
-      <c r="G53">
-        <v>44960</v>
+        <v>11704.539999999999</v>
+      </c>
+      <c r="G53" s="3">
+        <v>44978</v>
       </c>
       <c r="H53">
-        <v>1335.96</v>
+        <v>292.74</v>
       </c>
       <c r="I53">
-        <v>3750</v>
+        <v>4200</v>
       </c>
       <c r="J53">
-        <v>28558.03</v>
+        <v>31167.26</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>44819</v>
+        <v>23</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44895</v>
       </c>
       <c r="C54">
-        <v>917.1</v>
+        <v>320.29000000000002</v>
       </c>
       <c r="D54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E54">
-        <v>850</v>
+        <v>32850</v>
       </c>
       <c r="F54">
-        <v>179534.31</v>
-      </c>
-      <c r="G54">
-        <v>44960</v>
+        <v>12024.83</v>
+      </c>
+      <c r="G54" s="3">
+        <v>44978</v>
       </c>
       <c r="H54">
-        <v>625.47</v>
+        <v>292.74</v>
       </c>
       <c r="I54">
-        <v>3650</v>
+        <v>4150</v>
       </c>
       <c r="J54">
-        <v>27640.93</v>
+        <v>30893.969999999998</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>44819</v>
+        <v>22</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44880</v>
       </c>
       <c r="C55">
-        <v>772.57</v>
+        <v>4068.9</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E55">
-        <v>950</v>
+        <v>33350</v>
       </c>
       <c r="F55">
-        <v>180306.88</v>
-      </c>
-      <c r="G55">
-        <v>44960</v>
+        <v>16093.73</v>
+      </c>
+      <c r="G55" s="3">
+        <v>44953</v>
       </c>
       <c r="H55">
-        <v>625.47</v>
+        <v>2756.06</v>
       </c>
       <c r="I55">
-        <v>3550</v>
+        <v>4100</v>
       </c>
       <c r="J55">
-        <v>26868.36</v>
+        <v>30573.679999999997</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>44819</v>
+        <v>21</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44880</v>
       </c>
       <c r="C56">
-        <v>725.9</v>
+        <v>3171.79</v>
       </c>
       <c r="D56">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E56">
-        <v>1050</v>
+        <v>33850</v>
       </c>
       <c r="F56">
-        <v>181032.78</v>
-      </c>
-      <c r="G56">
+        <v>19265.52</v>
+      </c>
+      <c r="G56" s="3">
         <v>44960</v>
       </c>
       <c r="H56">
-        <v>618.98</v>
+        <v>3094.9</v>
       </c>
       <c r="I56">
-        <v>3450</v>
+        <v>3600</v>
       </c>
       <c r="J56">
-        <v>26142.46</v>
+        <v>26504.779999999995</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>44819</v>
+        <v>20</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44880</v>
       </c>
       <c r="C57">
-        <v>917.1</v>
+        <v>3679.44</v>
       </c>
       <c r="D57">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E57">
-        <v>350</v>
+        <v>34350</v>
       </c>
       <c r="F57">
-        <v>181949.88</v>
-      </c>
-      <c r="G57">
+        <v>22944.959999999999</v>
+      </c>
+      <c r="G57" s="3">
         <v>44960</v>
       </c>
       <c r="H57">
-        <v>668.47</v>
+        <v>3127.35</v>
       </c>
       <c r="I57">
-        <v>3350</v>
+        <v>3100</v>
       </c>
       <c r="J57">
-        <v>25225.360000000001</v>
+        <v>23332.989999999994</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>44819</v>
+        <v>19</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44880</v>
       </c>
       <c r="C58">
-        <v>509.06</v>
+        <v>4125.34</v>
       </c>
       <c r="D58">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E58">
-        <v>400</v>
+        <v>34850</v>
       </c>
       <c r="F58">
-        <v>182458.94</v>
-      </c>
-      <c r="G58">
+        <v>27070.3</v>
+      </c>
+      <c r="G58" s="3">
         <v>44960</v>
       </c>
       <c r="H58">
-        <v>333.99</v>
+        <v>3339.9</v>
       </c>
       <c r="I58">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="J58">
-        <v>24716.3</v>
+        <v>19653.549999999996</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>44819</v>
+        <v>18</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44880</v>
       </c>
       <c r="C59">
-        <v>464.47</v>
+        <v>2466.89</v>
       </c>
       <c r="D59">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E59">
-        <v>450</v>
+        <v>35350</v>
       </c>
       <c r="F59">
-        <v>182923.41</v>
-      </c>
-      <c r="G59">
-        <v>44960</v>
+        <v>29537.19</v>
+      </c>
+      <c r="G59" s="3">
+        <v>44978</v>
       </c>
       <c r="H59">
-        <v>312.74</v>
+        <v>2927.36</v>
       </c>
       <c r="I59">
-        <v>3250</v>
+        <v>2100</v>
       </c>
       <c r="J59">
-        <v>24251.83</v>
+        <v>15528.209999999997</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>44880</v>
+        <v>17</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44819</v>
       </c>
       <c r="C60">
-        <v>4125.34</v>
+        <v>503.42</v>
       </c>
       <c r="D60">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <v>950</v>
+        <v>35400</v>
       </c>
       <c r="F60">
-        <v>187048.75</v>
-      </c>
-      <c r="G60">
-        <v>44960</v>
+        <v>30040.609999999997</v>
+      </c>
+      <c r="G60" s="3">
+        <v>44953</v>
       </c>
       <c r="H60">
-        <v>3339.9</v>
+        <v>275.61</v>
       </c>
       <c r="I60">
-        <v>2750</v>
+        <v>1600</v>
       </c>
       <c r="J60">
-        <v>20126.490000000002</v>
+        <v>13061.319999999998</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>44880</v>
+        <v>16</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44819</v>
       </c>
       <c r="C61">
-        <v>3679.44</v>
+        <v>1989.98</v>
       </c>
       <c r="D61">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E61">
-        <v>1450</v>
+        <v>35600</v>
       </c>
       <c r="F61">
-        <v>190728.19</v>
-      </c>
-      <c r="G61">
-        <v>44960</v>
+        <v>32030.589999999997</v>
+      </c>
+      <c r="G61" s="3">
+        <v>44953</v>
       </c>
       <c r="H61">
-        <v>3127.35</v>
+        <v>1102.42</v>
       </c>
       <c r="I61">
-        <v>2250</v>
+        <v>1550</v>
       </c>
       <c r="J61">
-        <v>16447.05</v>
+        <v>12557.899999999998</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>44880</v>
+        <v>15</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44819</v>
       </c>
       <c r="C62">
-        <v>3171.79</v>
+        <v>464.47</v>
       </c>
       <c r="D62">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E62">
-        <v>1950</v>
+        <v>35650</v>
       </c>
       <c r="F62">
-        <v>193899.98</v>
-      </c>
-      <c r="G62">
+        <v>32495.059999999998</v>
+      </c>
+      <c r="G62" s="3">
         <v>44960</v>
       </c>
       <c r="H62">
-        <v>3094.9</v>
+        <v>312.74</v>
       </c>
       <c r="I62">
-        <v>1750</v>
+        <v>1350</v>
       </c>
       <c r="J62">
-        <v>13275.26</v>
+        <v>10567.919999999998</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>44895</v>
+        <v>14</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44819</v>
       </c>
       <c r="C63">
-        <v>551.39</v>
+        <v>509.06</v>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E63">
-        <v>2050</v>
+        <v>35700</v>
       </c>
       <c r="F63">
-        <v>194451.37</v>
-      </c>
-      <c r="G63">
+        <v>33004.119999999995</v>
+      </c>
+      <c r="G63" s="3">
         <v>44960</v>
       </c>
       <c r="H63">
-        <v>618.98</v>
+        <v>333.99</v>
       </c>
       <c r="I63">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="J63">
-        <v>12723.87</v>
+        <v>10103.449999999999</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>44895</v>
+        <v>13</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44819</v>
       </c>
       <c r="C64">
-        <v>320.81</v>
+        <v>917.1</v>
       </c>
       <c r="D64">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E64">
-        <v>2100</v>
+        <v>35800</v>
       </c>
       <c r="F64">
-        <v>194772.18</v>
-      </c>
-      <c r="G64">
+        <v>33921.219999999994</v>
+      </c>
+      <c r="G64" s="3">
         <v>44960</v>
       </c>
       <c r="H64">
-        <v>309.49</v>
+        <v>668.47</v>
       </c>
       <c r="I64">
-        <v>1600</v>
+        <v>1250</v>
       </c>
       <c r="J64">
-        <v>12403.06</v>
+        <v>9594.39</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>44895</v>
+        <v>12</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44819</v>
       </c>
       <c r="C65">
-        <v>640.57000000000005</v>
+        <v>725.9</v>
       </c>
       <c r="D65">
         <v>100</v>
       </c>
       <c r="E65">
-        <v>2200</v>
+        <v>35900</v>
       </c>
       <c r="F65">
-        <v>195412.75</v>
-      </c>
-      <c r="G65">
+        <v>34647.119999999995</v>
+      </c>
+      <c r="G65" s="3">
         <v>44960</v>
       </c>
       <c r="H65">
         <v>618.98</v>
       </c>
       <c r="I65">
-        <v>1500</v>
+        <v>1150</v>
       </c>
       <c r="J65">
-        <v>11762.49</v>
+        <v>8677.2899999999991</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>44895</v>
+        <v>11</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44819</v>
       </c>
       <c r="C66">
-        <v>1113.1500000000001</v>
+        <v>772.57</v>
       </c>
       <c r="D66">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E66">
-        <v>2350</v>
+        <v>36000</v>
       </c>
       <c r="F66">
-        <v>196525.9</v>
-      </c>
-      <c r="G66">
+        <v>35419.689999999995</v>
+      </c>
+      <c r="G66" s="3">
         <v>44960</v>
       </c>
       <c r="H66">
-        <v>938.2</v>
+        <v>625.47</v>
       </c>
       <c r="I66">
-        <v>1350</v>
+        <v>1050</v>
       </c>
       <c r="J66">
-        <v>10649.34</v>
+        <v>7951.3899999999994</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>44895</v>
+        <v>10</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44819</v>
       </c>
       <c r="C67">
-        <v>365.4</v>
+        <v>917.1</v>
       </c>
       <c r="D67">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E67">
-        <v>2400</v>
+        <v>36100</v>
       </c>
       <c r="F67">
-        <v>196891.3</v>
-      </c>
-      <c r="G67">
+        <v>36336.789999999994</v>
+      </c>
+      <c r="G67" s="3">
         <v>44960</v>
       </c>
       <c r="H67">
-        <v>333.99</v>
+        <v>625.47</v>
       </c>
       <c r="I67">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="J67">
-        <v>10283.94</v>
+        <v>7178.82</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>44895</v>
+        <v>9</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44819</v>
       </c>
       <c r="C68">
-        <v>742.1</v>
+        <v>2012.56</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E68">
-        <v>2500</v>
+        <v>36300</v>
       </c>
       <c r="F68">
-        <v>197633.4</v>
-      </c>
-      <c r="G68">
+        <v>38349.349999999991</v>
+      </c>
+      <c r="G68" s="3">
         <v>44960</v>
       </c>
       <c r="H68">
-        <v>667.98</v>
+        <v>1335.96</v>
       </c>
       <c r="I68">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="J68">
-        <v>9541.84</v>
+        <v>6261.7199999999993</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>44895</v>
+        <v>8</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44819</v>
       </c>
       <c r="C69">
-        <v>652.91999999999996</v>
+        <v>815.57</v>
       </c>
       <c r="D69">
         <v>100</v>
       </c>
       <c r="E69">
-        <v>2600</v>
+        <v>36400</v>
       </c>
       <c r="F69">
-        <v>198286.32</v>
-      </c>
-      <c r="G69">
+        <v>39164.919999999991</v>
+      </c>
+      <c r="G69" s="3">
         <v>44960</v>
       </c>
       <c r="H69">
-        <v>625.47</v>
+        <v>618.98</v>
       </c>
       <c r="I69">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="J69">
-        <v>8888.92</v>
+        <v>4249.16</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>44895</v>
+        <v>7</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44819</v>
       </c>
       <c r="C70">
-        <v>499.59</v>
+        <v>413.7</v>
       </c>
       <c r="D70">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E70">
-        <v>2700</v>
+        <v>36450</v>
       </c>
       <c r="F70">
-        <v>198785.91</v>
-      </c>
-      <c r="G70">
+        <v>39578.619999999988</v>
+      </c>
+      <c r="G70" s="3">
         <v>44960</v>
       </c>
       <c r="H70">
-        <v>585.47</v>
+        <v>309.49</v>
       </c>
       <c r="I70">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="J70">
-        <v>8389.33</v>
+        <v>3433.59</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="B71" s="3">
         <v>44819</v>
       </c>
       <c r="C71">
-        <v>1989.98</v>
+        <v>674.59</v>
       </c>
       <c r="D71">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E71">
-        <v>200</v>
+        <v>36550</v>
       </c>
       <c r="F71">
-        <v>200775.89</v>
-      </c>
-      <c r="G71">
-        <v>44953</v>
+        <v>40253.209999999985</v>
+      </c>
+      <c r="G71" s="3">
+        <v>44978</v>
       </c>
       <c r="H71">
-        <v>1102.42</v>
+        <v>585.47</v>
       </c>
       <c r="I71">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J71">
-        <v>6399.35</v>
+        <v>3019.8900000000003</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="B72" s="3">
         <v>44819</v>
       </c>
       <c r="C72">
-        <v>503.42</v>
+        <v>630.86</v>
       </c>
       <c r="D72">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>250</v>
+        <v>36650</v>
       </c>
       <c r="F72">
-        <v>201279.31</v>
-      </c>
-      <c r="G72">
-        <v>44953</v>
+        <v>40884.069999999985</v>
+      </c>
+      <c r="G72" s="3">
+        <v>44978</v>
       </c>
       <c r="H72">
-        <v>275.61</v>
+        <v>585.47</v>
       </c>
       <c r="I72">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="J72">
-        <v>5895.93</v>
+        <v>2345.3000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>44880</v>
+        <v>4</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44819</v>
       </c>
       <c r="C73">
-        <v>4068.9</v>
+        <v>343.21</v>
       </c>
       <c r="D73">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E73">
-        <v>750</v>
+        <v>36700</v>
       </c>
       <c r="F73">
-        <v>205348.21</v>
-      </c>
-      <c r="G73">
-        <v>44953</v>
+        <v>41227.279999999984</v>
+      </c>
+      <c r="G73" s="3">
+        <v>44978</v>
       </c>
       <c r="H73">
-        <v>2756.06</v>
+        <v>292.74</v>
       </c>
       <c r="I73">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="J73">
-        <v>1827.03</v>
+        <v>1714.44</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>44895</v>
+        <v>3</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44819</v>
       </c>
       <c r="C74">
-        <v>1827.03</v>
+        <v>287.72000000000003</v>
       </c>
       <c r="D74">
+        <v>50</v>
+      </c>
+      <c r="E74">
+        <v>36750</v>
+      </c>
+      <c r="F74">
+        <v>41514.999999999985</v>
+      </c>
+      <c r="G74" s="3">
+        <v>44979</v>
+      </c>
+      <c r="H74">
+        <v>330.74</v>
+      </c>
+      <c r="I74">
         <v>250</v>
       </c>
-      <c r="E74">
-        <v>1000</v>
-      </c>
-      <c r="F74">
-        <v>207175.24</v>
-      </c>
-      <c r="G74">
-        <v>44953</v>
-      </c>
-      <c r="H74">
-        <v>1378.03</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>9</v>
+      <c r="J74">
+        <v>1371.23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" s="3">
+        <v>44819</v>
+      </c>
+      <c r="C75">
+        <v>563.62</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <v>36850</v>
+      </c>
+      <c r="F75">
+        <v>42078.619999999988</v>
+      </c>
+      <c r="G75" s="3">
+        <v>44979</v>
+      </c>
+      <c r="H75">
+        <v>661.47</v>
+      </c>
+      <c r="I75">
+        <v>200</v>
+      </c>
+      <c r="J75">
+        <v>1083.51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" s="3">
+        <v>44819</v>
+      </c>
+      <c r="C76">
+        <v>519.89</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+      <c r="E76">
+        <v>36950</v>
+      </c>
+      <c r="F76">
+        <v>42598.509999999987</v>
+      </c>
+      <c r="G76" s="3">
+        <v>44979</v>
+      </c>
+      <c r="H76">
+        <v>661.47</v>
+      </c>
+      <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76">
+        <v>519.89</v>
       </c>
     </row>
   </sheetData>
